--- a/test_ホワイトボード/已完成/test_ホワイトボート_空き待ちリスト.xlsx
+++ b/test_ホワイトボード/已完成/test_ホワイトボート_空き待ちリスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="822" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5794" uniqueCount="965">
   <si>
     <t>URL:</t>
   </si>
@@ -5003,8 +5003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:KQ166"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5541,9 +5541,7 @@
       <c r="B50" s="110"/>
     </row>
     <row r="51" spans="1:75" ht="14.25">
-      <c r="A51" s="104" t="s">
-        <v>175</v>
-      </c>
+      <c r="A51" s="104"/>
       <c r="B51" s="110" t="s">
         <v>532</v>
       </c>
@@ -24643,7 +24641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
